--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_YO.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_YO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE6CCE1-0345-465F-A4D7-385E4CC1A38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2C1C76-A797-45E9-A157-A26C6C39D7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="172">
   <si>
     <t>transect</t>
   </si>
@@ -104,37 +104,22 @@
     <t>P5191045</t>
   </si>
   <si>
-    <t>Cephalopoda</t>
-  </si>
-  <si>
     <t>P5191046</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Monoplacophora</t>
-  </si>
-  <si>
     <t>P5191047</t>
   </si>
   <si>
-    <t>Scaphopoda</t>
-  </si>
-  <si>
     <t>P5191048</t>
   </si>
   <si>
-    <t>Solenogastres</t>
-  </si>
-  <si>
     <t>P5191049</t>
   </si>
   <si>
     <t>1,5</t>
-  </si>
-  <si>
-    <t>Caudofoveata</t>
   </si>
   <si>
     <t>P5191050</t>
@@ -864,8 +849,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -908,9 +893,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -940,9 +923,7 @@
       <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -972,9 +953,7 @@
       <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1001,9 +980,7 @@
       <c r="K4" s="3">
         <v>2</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1019,17 +996,15 @@
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1045,7 +1020,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>16</v>
@@ -1059,9 +1034,7 @@
       <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1077,17 +1050,15 @@
         <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1103,7 +1074,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>16</v>
@@ -1115,11 +1086,9 @@
         <v>18</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1135,7 +1104,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>16</v>
@@ -1144,7 +1113,7 @@
         <v>17</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1161,7 +1130,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>16</v>
@@ -1187,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>16</v>
@@ -1213,13 +1182,13 @@
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,13 +1205,13 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
@@ -1280,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>16</v>
@@ -1306,7 +1275,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>16</v>
@@ -1332,7 +1301,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>16</v>
@@ -1353,7 +1322,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>16</v>
@@ -1367,7 +1336,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
@@ -1379,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>16</v>
@@ -1393,7 +1362,7 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1405,7 +1374,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>16</v>
@@ -1419,7 +1388,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -1431,7 +1400,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
@@ -1445,7 +1414,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
@@ -1457,18 +1426,18 @@
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
@@ -1480,7 +1449,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>16</v>
@@ -1489,15 +1458,15 @@
         <v>20</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -1509,7 +1478,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>16</v>
@@ -1523,7 +1492,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -1535,7 +1504,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>16</v>
@@ -1549,7 +1518,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -1561,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>16</v>
@@ -1570,12 +1539,12 @@
         <v>17</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
@@ -1587,7 +1556,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>16</v>
@@ -1601,7 +1570,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
@@ -1613,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>16</v>
@@ -1627,7 +1596,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -1639,24 +1608,24 @@
         <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -1668,16 +1637,16 @@
         <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K30" s="3">
         <v>2</v>
@@ -1685,7 +1654,7 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
@@ -1697,16 +1666,16 @@
         <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K31" s="3">
         <v>2</v>
@@ -1714,7 +1683,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
@@ -1726,21 +1695,21 @@
         <v>14</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -1752,10 +1721,10 @@
         <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>17</v>
@@ -1766,7 +1735,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>12</v>
@@ -1778,16 +1747,16 @@
         <v>14</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K34" s="3">
         <v>4</v>
@@ -1795,7 +1764,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
@@ -1807,16 +1776,16 @@
         <v>14</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K35" s="3">
         <v>3.5</v>
@@ -1824,7 +1793,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>12</v>
@@ -1836,10 +1805,10 @@
         <v>14</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>17</v>
@@ -1850,22 +1819,22 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>17</v>
@@ -1876,245 +1845,245 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>17</v>
@@ -2125,92 +2094,92 @@
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>17</v>
@@ -2221,22 +2190,22 @@
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>17</v>
@@ -2247,43 +2216,43 @@
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>17</v>
@@ -2294,19 +2263,19 @@
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>16</v>
@@ -2315,27 +2284,27 @@
         <v>20</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>16</v>
@@ -2344,19 +2313,19 @@
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>16</v>
@@ -2370,19 +2339,19 @@
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>16</v>
@@ -2396,42 +2365,42 @@
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>16</v>
@@ -2440,19 +2409,19 @@
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>16</v>
@@ -2466,19 +2435,19 @@
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>16</v>
@@ -2492,88 +2461,88 @@
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>16</v>
@@ -2582,24 +2551,24 @@
         <v>17</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>16</v>
@@ -2608,24 +2577,24 @@
         <v>17</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>16</v>
@@ -2634,24 +2603,24 @@
         <v>17</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>16</v>
@@ -2665,19 +2634,19 @@
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>16</v>
@@ -2686,50 +2655,50 @@
         <v>17</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
@@ -2743,42 +2712,42 @@
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>16</v>
@@ -2792,88 +2761,88 @@
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>16</v>
@@ -2881,19 +2850,19 @@
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>16</v>
@@ -2902,7 +2871,7 @@
         <v>20</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K79" s="3">
         <v>4</v>
@@ -2910,45 +2879,45 @@
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>17</v>
@@ -2959,48 +2928,48 @@
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>17</v>
@@ -3011,80 +2980,80 @@
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>17</v>
@@ -3095,28 +3064,28 @@
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K87" s="3">
         <v>7</v>
@@ -3124,103 +3093,103 @@
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>17</v>
@@ -3231,51 +3200,51 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K93" s="3">
         <v>3</v>
@@ -3283,48 +3252,48 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>17</v>
@@ -3335,94 +3304,94 @@
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>16</v>
@@ -3431,24 +3400,24 @@
         <v>17</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>16</v>
@@ -3462,19 +3431,19 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>16</v>
@@ -3483,24 +3452,24 @@
         <v>17</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>16</v>
@@ -3514,19 +3483,19 @@
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>16</v>
@@ -3540,19 +3509,19 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>16</v>
@@ -3566,111 +3535,111 @@
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>16</v>
@@ -3684,48 +3653,48 @@
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>17</v>
@@ -3736,28 +3705,28 @@
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K112" s="3">
         <v>20</v>
@@ -3765,28 +3734,28 @@
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K113" s="3">
         <v>4</v>
@@ -3794,22 +3763,22 @@
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="F114" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>17</v>
@@ -3820,68 +3789,68 @@
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>17</v>
@@ -3892,68 +3861,68 @@
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>17</v>
@@ -3964,22 +3933,22 @@
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>17</v>
@@ -3990,74 +3959,74 @@
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K124" s="3">
         <v>4</v>
@@ -4065,19 +4034,19 @@
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>16</v>
@@ -4086,47 +4055,47 @@
         <v>17</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>16</v>
@@ -4135,7 +4104,7 @@
         <v>20</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K127" s="3">
         <v>25</v>
@@ -4143,65 +4112,65 @@
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>16</v>
@@ -4215,42 +4184,42 @@
     </row>
     <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>16</v>
@@ -4264,19 +4233,19 @@
     </row>
     <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>16</v>
@@ -4285,24 +4254,24 @@
         <v>17</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>16</v>
@@ -4311,24 +4280,24 @@
         <v>17</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>16</v>
@@ -4337,50 +4306,50 @@
         <v>17</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>16</v>
@@ -4389,47 +4358,47 @@
         <v>17</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>16</v>
@@ -4438,24 +4407,24 @@
         <v>17</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>16</v>

--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_YO.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_YO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2C1C76-A797-45E9-A157-A26C6C39D7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E974A0E4-ABC3-4461-8912-FEA98B21ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="166">
   <si>
     <t>transect</t>
   </si>
@@ -119,9 +119,6 @@
     <t>P5191049</t>
   </si>
   <si>
-    <t>1,5</t>
-  </si>
-  <si>
     <t>P5191050</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>JDR</t>
   </si>
   <si>
-    <t>2,5</t>
-  </si>
-  <si>
     <t>P5185774</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>P5201263</t>
   </si>
   <si>
-    <t>3,5</t>
-  </si>
-  <si>
     <t>P5201265</t>
   </si>
   <si>
@@ -386,15 +377,9 @@
     <t>P5200031</t>
   </si>
   <si>
-    <t>4,5</t>
-  </si>
-  <si>
     <t>P5200032</t>
   </si>
   <si>
-    <t>5,5</t>
-  </si>
-  <si>
     <t>P5200033</t>
   </si>
   <si>
@@ -405,9 +390,6 @@
   </si>
   <si>
     <t>P5200036</t>
-  </si>
-  <si>
-    <t>0,8</t>
   </si>
   <si>
     <t>P5200037</t>
@@ -850,7 +832,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1085,8 +1067,8 @@
       <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>27</v>
+      <c r="K8" s="3">
+        <v>1.5</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -1104,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>16</v>
@@ -1112,8 +1094,8 @@
       <c r="G9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>27</v>
+      <c r="K9" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1130,7 +1112,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>16</v>
@@ -1156,7 +1138,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>16</v>
@@ -1182,7 +1164,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>16</v>
@@ -1205,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>16</v>
@@ -1228,7 +1210,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
@@ -1249,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>16</v>
@@ -1275,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>16</v>
@@ -1301,7 +1283,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>16</v>
@@ -1322,7 +1304,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>16</v>
@@ -1336,7 +1318,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
@@ -1348,7 +1330,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>16</v>
@@ -1362,7 +1344,7 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -1374,7 +1356,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>16</v>
@@ -1388,7 +1370,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -1400,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
@@ -1414,7 +1396,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
@@ -1426,7 +1408,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>16</v>
@@ -1437,7 +1419,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
@@ -1449,7 +1431,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>16</v>
@@ -1458,15 +1440,15 @@
         <v>20</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -1478,7 +1460,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>16</v>
@@ -1492,7 +1474,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -1504,7 +1486,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>16</v>
@@ -1518,7 +1500,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -1530,7 +1512,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>16</v>
@@ -1538,13 +1520,13 @@
       <c r="G26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>27</v>
+      <c r="K26" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
@@ -1556,7 +1538,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>16</v>
@@ -1570,7 +1552,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
@@ -1582,7 +1564,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>16</v>
@@ -1596,7 +1578,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -1608,24 +1590,24 @@
         <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="K29" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -1637,16 +1619,16 @@
         <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30" s="3">
         <v>2</v>
@@ -1654,7 +1636,7 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
@@ -1666,16 +1648,16 @@
         <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31" s="3">
         <v>2</v>
@@ -1683,7 +1665,7 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
@@ -1695,21 +1677,21 @@
         <v>14</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>27</v>
+      <c r="K32" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -1721,10 +1703,10 @@
         <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>17</v>
@@ -1735,7 +1717,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>12</v>
@@ -1747,16 +1729,16 @@
         <v>14</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K34" s="3">
         <v>4</v>
@@ -1764,7 +1746,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
@@ -1776,16 +1758,16 @@
         <v>14</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K35" s="3">
         <v>3.5</v>
@@ -1793,7 +1775,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>12</v>
@@ -1805,10 +1787,10 @@
         <v>14</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>17</v>
@@ -1819,22 +1801,22 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>17</v>
@@ -1845,121 +1827,121 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>27</v>
+      <c r="K38" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>54</v>
+      <c r="K39" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>54</v>
+      <c r="K40" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>23</v>
@@ -1967,22 +1949,22 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>23</v>
@@ -1990,100 +1972,100 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>27</v>
+      <c r="K44" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>54</v>
+      <c r="K45" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>27</v>
+      <c r="K46" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>17</v>
@@ -2094,48 +2076,48 @@
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>54</v>
+      <c r="K48" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>23</v>
@@ -2143,43 +2125,43 @@
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>17</v>
@@ -2190,22 +2172,22 @@
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>17</v>
@@ -2216,43 +2198,43 @@
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>17</v>
@@ -2263,19 +2245,19 @@
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>16</v>
@@ -2284,27 +2266,27 @@
         <v>20</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>85</v>
+        <v>43</v>
+      </c>
+      <c r="K55" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>16</v>
@@ -2313,19 +2295,19 @@
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>16</v>
@@ -2339,19 +2321,19 @@
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>16</v>
@@ -2365,19 +2347,19 @@
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>16</v>
@@ -2388,19 +2370,19 @@
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>16</v>
@@ -2409,19 +2391,19 @@
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>16</v>
@@ -2435,19 +2417,19 @@
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>16</v>
@@ -2461,19 +2443,19 @@
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>16</v>
@@ -2484,19 +2466,19 @@
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>16</v>
@@ -2507,19 +2489,19 @@
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>16</v>
@@ -2530,19 +2512,19 @@
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>16</v>
@@ -2550,25 +2532,25 @@
       <c r="G66" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>54</v>
+      <c r="K66" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>16</v>
@@ -2576,25 +2558,25 @@
       <c r="G67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K67" s="3" t="s">
-        <v>54</v>
+      <c r="K67" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>16</v>
@@ -2602,25 +2584,25 @@
       <c r="G68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>54</v>
+      <c r="K68" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>16</v>
@@ -2634,19 +2616,19 @@
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>16</v>
@@ -2655,27 +2637,27 @@
         <v>17</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="K70" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>16</v>
@@ -2686,19 +2668,19 @@
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
@@ -2712,19 +2694,19 @@
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>16</v>
@@ -2735,19 +2717,19 @@
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>16</v>
@@ -2761,19 +2743,19 @@
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>16</v>
@@ -2784,19 +2766,19 @@
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>16</v>
@@ -2807,19 +2789,19 @@
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>16</v>
@@ -2830,19 +2812,19 @@
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>16</v>
@@ -2850,19 +2832,19 @@
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>16</v>
@@ -2871,7 +2853,7 @@
         <v>20</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K79" s="3">
         <v>4</v>
@@ -2879,19 +2861,19 @@
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>16</v>
@@ -2902,22 +2884,22 @@
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D81" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>17</v>
@@ -2928,48 +2910,48 @@
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D82" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G82" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K82" s="3" t="s">
-        <v>27</v>
+      <c r="K82" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="F83" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>17</v>
@@ -2980,80 +2962,80 @@
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D84" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>116</v>
+        <v>43</v>
+      </c>
+      <c r="K84" s="3">
+        <v>4.5</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D85" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>118</v>
+        <v>43</v>
+      </c>
+      <c r="K85" s="3">
+        <v>5.5</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D86" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>17</v>
@@ -3064,28 +3046,28 @@
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D87" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K87" s="3">
         <v>7</v>
@@ -3093,22 +3075,22 @@
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D88" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>23</v>
@@ -3116,80 +3098,80 @@
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D89" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>123</v>
+        <v>57</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0.8</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D90" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G90" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="K90" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D91" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>17</v>
@@ -3200,22 +3182,22 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D92" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>23</v>
@@ -3223,28 +3205,28 @@
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D93" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K93" s="3">
         <v>3</v>
@@ -3252,48 +3234,48 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D94" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>27</v>
+      <c r="K94" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D95" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>17</v>
@@ -3304,22 +3286,22 @@
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D96" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>23</v>
@@ -3327,71 +3309,71 @@
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D97" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G97" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K97" s="3" t="s">
-        <v>27</v>
+      <c r="K97" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D98" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G98" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K98" s="3" t="s">
-        <v>54</v>
+      <c r="K98" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>16</v>
@@ -3399,25 +3381,25 @@
       <c r="G99" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K99" s="3" t="s">
-        <v>54</v>
+      <c r="K99" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>16</v>
@@ -3431,19 +3413,19 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>16</v>
@@ -3451,25 +3433,25 @@
       <c r="G101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>54</v>
+      <c r="K101" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>16</v>
@@ -3483,19 +3465,19 @@
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>16</v>
@@ -3509,19 +3491,19 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>16</v>
@@ -3535,19 +3517,19 @@
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>16</v>
@@ -3558,19 +3540,19 @@
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>16</v>
@@ -3581,19 +3563,19 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>16</v>
@@ -3604,19 +3586,19 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>16</v>
@@ -3627,19 +3609,19 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>16</v>
@@ -3653,48 +3635,48 @@
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D110" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G110" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K110" s="3" t="s">
-        <v>118</v>
+      <c r="K110" s="3">
+        <v>5.5</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D111" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>17</v>
@@ -3705,28 +3687,28 @@
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D112" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112" s="3">
         <v>20</v>
@@ -3734,28 +3716,28 @@
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D113" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G113" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K113" s="3">
         <v>4</v>
@@ -3763,22 +3745,22 @@
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D114" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>17</v>
@@ -3789,22 +3771,22 @@
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D115" s="4" t="s">
+      <c r="F115" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>23</v>
@@ -3812,22 +3794,22 @@
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D116" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>23</v>
@@ -3835,22 +3817,22 @@
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D117" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>17</v>
@@ -3861,22 +3843,22 @@
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D118" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>23</v>
@@ -3884,22 +3866,22 @@
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D119" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>23</v>
@@ -3907,22 +3889,22 @@
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D120" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>17</v>
@@ -3933,22 +3915,22 @@
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D121" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F121" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>17</v>
@@ -3959,22 +3941,22 @@
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D122" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>23</v>
@@ -3982,22 +3964,22 @@
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D123" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>23</v>
@@ -4005,28 +3987,28 @@
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D124" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124" s="3">
         <v>4</v>
@@ -4034,19 +4016,19 @@
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>16</v>
@@ -4054,25 +4036,25 @@
       <c r="G125" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K125" s="3" t="s">
-        <v>54</v>
+      <c r="K125" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>16</v>
@@ -4083,19 +4065,19 @@
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>16</v>
@@ -4104,7 +4086,7 @@
         <v>20</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K127" s="3">
         <v>25</v>
@@ -4112,19 +4094,19 @@
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>16</v>
@@ -4135,19 +4117,19 @@
     </row>
     <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>16</v>
@@ -4158,19 +4140,19 @@
     </row>
     <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>16</v>
@@ -4184,19 +4166,19 @@
     </row>
     <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>16</v>
@@ -4207,19 +4189,19 @@
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>16</v>
@@ -4233,19 +4215,19 @@
     </row>
     <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>16</v>
@@ -4253,25 +4235,25 @@
       <c r="G133" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K133" s="3" t="s">
-        <v>54</v>
+      <c r="K133" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>16</v>
@@ -4279,25 +4261,25 @@
       <c r="G134" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K134" s="3" t="s">
-        <v>27</v>
+      <c r="K134" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>16</v>
@@ -4306,27 +4288,27 @@
         <v>17</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K135" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="K135" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>16</v>
@@ -4337,19 +4319,19 @@
     </row>
     <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>16</v>
@@ -4357,25 +4339,25 @@
       <c r="G137" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K137" s="3" t="s">
-        <v>27</v>
+      <c r="K137" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>16</v>
@@ -4386,19 +4368,19 @@
     </row>
     <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>16</v>
@@ -4406,25 +4388,25 @@
       <c r="G139" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K139" s="3" t="s">
-        <v>54</v>
+      <c r="K139" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>16</v>

--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_YO.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_YO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E974A0E4-ABC3-4461-8912-FEA98B21ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ABD1DB-D080-422D-A94F-E86746AEDA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="166">
   <si>
     <t>transect</t>
   </si>
@@ -832,7 +832,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -986,6 +986,9 @@
       <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K5" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1040,6 +1043,9 @@
       <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K7" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1172,6 +1178,9 @@
       <c r="G12" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K12" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1195,6 +1204,9 @@
       <c r="G13" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K13" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1216,6 +1228,9 @@
         <v>16</v>
       </c>
       <c r="G14" s="5"/>
+      <c r="K14" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1416,6 +1431,9 @@
       <c r="G22" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K22" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1923,6 +1941,9 @@
         <v>64</v>
       </c>
       <c r="G41" s="5"/>
+      <c r="K41" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -1946,6 +1967,9 @@
       <c r="G42" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K42" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -1969,6 +1993,9 @@
       <c r="G43" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K43" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -2122,6 +2149,9 @@
       <c r="G49" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K49" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -2143,6 +2173,9 @@
         <v>64</v>
       </c>
       <c r="G50" s="5"/>
+      <c r="K50" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -2216,6 +2249,9 @@
         <v>64</v>
       </c>
       <c r="G53" s="5"/>
+      <c r="K53" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
@@ -2292,6 +2328,9 @@
         <v>16</v>
       </c>
       <c r="G56" s="5"/>
+      <c r="K56" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
@@ -2367,6 +2406,9 @@
       <c r="G59" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K59" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -2388,6 +2430,9 @@
         <v>16</v>
       </c>
       <c r="G60" s="5"/>
+      <c r="K60" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -2463,6 +2508,9 @@
       <c r="G63" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K63" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -2486,6 +2534,9 @@
       <c r="G64" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K64" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -2509,6 +2560,9 @@
       <c r="G65" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K65" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -2665,6 +2719,9 @@
       <c r="G71" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K71" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -2763,6 +2820,9 @@
       <c r="G75" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K75" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -2786,6 +2846,9 @@
       <c r="G76" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K76" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -2809,6 +2872,9 @@
       <c r="G77" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K77" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -2829,6 +2895,9 @@
       <c r="F78" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="K78" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -2881,6 +2950,9 @@
       <c r="G80" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K80" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
@@ -3095,6 +3167,9 @@
       <c r="G88" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K88" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -3202,6 +3277,9 @@
       <c r="G92" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K92" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
@@ -3306,6 +3384,9 @@
       <c r="G96" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K96" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
@@ -3537,6 +3618,9 @@
       <c r="G105" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K105" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
@@ -3560,6 +3644,9 @@
       <c r="G106" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K106" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
@@ -3583,6 +3670,9 @@
       <c r="G107" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K107" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
@@ -3606,6 +3696,9 @@
       <c r="G108" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K108" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
@@ -3791,6 +3884,9 @@
       <c r="G115" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K115" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
@@ -3814,6 +3910,9 @@
       <c r="G116" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K116" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
@@ -3863,6 +3962,9 @@
       <c r="G118" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K118" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
@@ -3886,6 +3988,9 @@
       <c r="G119" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K119" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
@@ -3961,6 +4066,9 @@
       <c r="G122" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K122" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
@@ -3984,6 +4092,9 @@
       <c r="G123" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K123" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -4062,6 +4173,9 @@
       <c r="G126" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K126" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
@@ -4114,6 +4228,9 @@
       <c r="G128" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K128" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
@@ -4137,6 +4254,9 @@
       <c r="G129" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K129" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
@@ -4186,6 +4306,9 @@
       <c r="G131" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K131" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
@@ -4316,6 +4439,9 @@
       <c r="G136" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="K136" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
@@ -4363,6 +4489,9 @@
         <v>16</v>
       </c>
       <c r="G138" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K138" s="3" t="s">
         <v>23</v>
       </c>
     </row>
